--- a/Recycling/Met_rec_tech/metrec_tech_Max_target_Max.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Max_target_Max.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.895320880124901E-12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.272987301821125E-13</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.228215958407231E-08</v>
+      </c>
+      <c r="E7">
         <v>1.69029289447031</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.401536792586915E-10</v>
-      </c>
-      <c r="F7">
-        <v>3.228215958407231E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4.504448833441187</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>385.2793302562875</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>25.87718524148167</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>277859.2387505087</v>
+      </c>
+      <c r="E7">
         <v>797536.5693350484</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>48818.25007767261</v>
-      </c>
-      <c r="F7">
-        <v>277859.2387505087</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2125349.210850066</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>471.7442362599101</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>31.68457799222873</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>341144.0515483537</v>
+      </c>
+      <c r="E7">
         <v>822125.2493334046</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>59774.10748486716</v>
-      </c>
-      <c r="F7">
-        <v>341144.0515483537</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2190875.399415842</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.871420906319889E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.600229705391774E-12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.60204460463813E-07</v>
+      </c>
+      <c r="E7">
         <v>3.633494668870312</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.905427805715255E-09</v>
-      </c>
-      <c r="F7">
-        <v>5.60204460463813E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9.682872640623962</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.373255764987866E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.280580531331024E-11</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>7.90826111835641E-06</v>
+      </c>
+      <c r="E7">
         <v>8.054988313173395</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.075470686091104E-08</v>
-      </c>
-      <c r="F7">
-        <v>7.90826111835641E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>21.46567782977426</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.104656418087936E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.771823863108547E-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>7.659551873127618E-05</v>
+      </c>
+      <c r="E7">
         <v>14.89153298341969</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.002219078387696E-07</v>
-      </c>
-      <c r="F7">
-        <v>7.659551873127618E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>39.68433435102155</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.124781353748638E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.785340723401014E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.000677027923356517</v>
+      </c>
+      <c r="E7">
         <v>29.63117209892168</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.027719126397743E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.000677027923356517</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>78.96388787477524</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.74081861942866E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.855805780026741E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.004875683443043969</v>
+      </c>
+      <c r="E7">
         <v>55.32622785624832</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7.274117685664607E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.004875683443043969</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>147.4384488872124</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.292991375808527E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.211729027189572E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.02531884566810291</v>
+      </c>
+      <c r="E7">
         <v>83.95308573068702</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0004172507162034977</v>
-      </c>
-      <c r="F7">
-        <v>0.02531884566810291</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>223.7259473316822</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.965886848193423E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.320382749332907E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.1384151761327229</v>
+      </c>
+      <c r="E7">
         <v>148.0706447579244</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.002490950026197207</v>
-      </c>
-      <c r="F7">
-        <v>0.1384151761327229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>394.5923485975066</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0001064628628273367</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.150550279686299E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.6934093212317836</v>
+      </c>
+      <c r="E7">
         <v>259.4307336848191</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01348977288252817</v>
-      </c>
-      <c r="F7">
-        <v>0.6934093212317836</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>691.355012807753</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.000531375560362929</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.568970024724871E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.230026833401249</v>
+      </c>
+      <c r="E7">
         <v>451.428158685174</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.06732991612528259</v>
-      </c>
-      <c r="F7">
-        <v>3.230026833401249</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1203.007508003018</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.002190277704472932</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0001471094279862639</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>12.52154151382194</v>
+      </c>
+      <c r="E7">
         <v>690.3604791787058</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.2775272803900057</v>
-      </c>
-      <c r="F7">
-        <v>12.52154151382194</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1839.73645352447</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.008940205712258871</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0006004665735874888</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>48.38436755770237</v>
+      </c>
+      <c r="E7">
         <v>1102.171499423538</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.132802006057703</v>
-      </c>
-      <c r="F7">
-        <v>48.38436755770237</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2937.16854698503</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.03435712819059597</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.002307587510500442</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>176.939045237292</v>
+      </c>
+      <c r="E7">
         <v>1734.531097467639</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.353347673345106</v>
-      </c>
-      <c r="F7">
-        <v>176.939045237292</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4622.338888198411</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1059681070857865</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.007117320139972169</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>520.8225644306132</v>
+      </c>
+      <c r="E7">
         <v>2283.620851318896</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13.42708301670459</v>
-      </c>
-      <c r="F7">
-        <v>520.8225644306132</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6085.604047320365</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.3527280109379051</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.02369088441061156</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1651.031418537667</v>
+      </c>
+      <c r="E7">
         <v>3379.758374693044</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>44.69371413180211</v>
-      </c>
-      <c r="F7">
-        <v>1651.031418537667</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9006.692696871287</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.06398735956667</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.07146243215224329</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4676.834044413787</v>
+      </c>
+      <c r="E7">
         <v>4755.602528889584</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>134.8164744894477</v>
-      </c>
-      <c r="F7">
-        <v>4676.834044413787</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>12673.16944515673</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.915777333143274</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.1958374204047522</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>11547.96977051422</v>
+      </c>
+      <c r="E7">
         <v>6542.406483567293</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>369.4544083782306</v>
-      </c>
-      <c r="F7">
-        <v>11547.96977051422</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>17434.80987775069</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.814605422918234</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.4577011872377311</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>22236.27151902431</v>
+      </c>
+      <c r="E7">
         <v>8811.097821335632</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>863.4699180342473</v>
-      </c>
-      <c r="F7">
-        <v>22236.27151902431</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>23480.62837659206</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.93036544111448</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8012998681058946</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>29207.84937075579</v>
+      </c>
+      <c r="E7">
         <v>11629.22031022888</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1511.681312451733</v>
-      </c>
-      <c r="F7">
-        <v>29207.84937075579</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>30990.62182158464</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.89877797489918</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8663430421330339</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>28467.84539078882</v>
+      </c>
+      <c r="E7">
         <v>15055.36741340219</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1634.387623276159</v>
-      </c>
-      <c r="F7">
-        <v>28467.84539078882</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>40120.93549241335</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>3.708767356744974E-06</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9.883466260934518E-06</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.967145792273167</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.5351112590841604</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>27655.74470723482</v>
+      </c>
+      <c r="E7">
         <v>19133.30899432212</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1009.506830884866</v>
-      </c>
-      <c r="F7">
-        <v>27655.74470723482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>50988.21136933905</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.120037406365361</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.3438859705235112</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>29172.15970322966</v>
+      </c>
+      <c r="E7">
         <v>23886.92578832793</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>648.7533767895492</v>
-      </c>
-      <c r="F7">
-        <v>29172.15970322966</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>63656.089044525</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.93083328317575</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.5326723389275253</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>30988.38898456839</v>
+      </c>
+      <c r="E7">
         <v>29316.90520674158</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1004.905719403266</v>
-      </c>
-      <c r="F7">
-        <v>30988.38898456839</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>78126.40039523787</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.07199113405346</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8108121206544476</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>32604.11549032723</v>
+      </c>
+      <c r="E7">
         <v>35400.7657954209</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1529.626522465257</v>
-      </c>
-      <c r="F7">
-        <v>32604.11549032723</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>94339.23476326207</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>16.83143934979216</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.130479212693834</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33813.75778524591</v>
+      </c>
+      <c r="E7">
         <v>42098.61883633827</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2132.690105121267</v>
-      </c>
-      <c r="F7">
-        <v>33813.75778524591</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>112188.2930036538</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>23.61945065225929</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.586394212801336</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36372.08182394024</v>
+      </c>
+      <c r="E7">
         <v>49367.79338872461</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2992.790316242054</v>
-      </c>
-      <c r="F7">
-        <v>36372.08182394024</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>131559.8616469911</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>28.97284066026937</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.945953249656553</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37498.00643836133</v>
+      </c>
+      <c r="E7">
         <v>57189.79153717997</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3671.111502069762</v>
-      </c>
-      <c r="F7">
-        <v>37498.00643836133</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>152404.6457375201</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>33.35658663145411</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.240386398905662</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36617.64510777804</v>
+      </c>
+      <c r="E7">
         <v>65612.47786975835</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4226.570334901332</v>
-      </c>
-      <c r="F7">
-        <v>36617.64510777804</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>174850.1992562864</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>49.36852076264935</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.315823758370862</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37307.09783568498</v>
+      </c>
+      <c r="E7">
         <v>74808.24893207719</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6255.421984233108</v>
-      </c>
-      <c r="F7">
-        <v>37307.09783568498</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>199355.9404623007</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>81.55552830072838</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.477655683996843</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37555.49497772253</v>
+      </c>
+      <c r="E7">
         <v>85144.55459372049</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>10333.79645140382</v>
-      </c>
-      <c r="F7">
-        <v>37555.49497772253</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>226901.0837519618</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0002714932662646493</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0007235003652406454</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>119.5477676714352</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.029394484208403</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>38569.53196502037</v>
+      </c>
+      <c r="E7">
         <v>97256.25043163683</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15147.74440281925</v>
-      </c>
-      <c r="F7">
-        <v>38569.53196502037</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>259177.4509819106</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>160.4490573680511</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.77651888714687</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40437.72279863406</v>
+      </c>
+      <c r="E7">
         <v>112102.5577653107</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20330.29439214909</v>
-      </c>
-      <c r="F7">
-        <v>40437.72279863406</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>298741.2638387548</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>167.6623747177772</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.26099945645301</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40207.21137631391</v>
+      </c>
+      <c r="E7">
         <v>130987.1444164775</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21244.28458735187</v>
-      </c>
-      <c r="F7">
-        <v>40207.21137631391</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>349066.656904744</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>145.3926697037046</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.765260555695033</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37667.35606470206</v>
+      </c>
+      <c r="E7">
         <v>155519.8114857066</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18422.51881079228</v>
-      </c>
-      <c r="F7">
-        <v>37667.35606470206</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>414443.577036577</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>140.8720991937236</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.461637622157067</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33925.52939891469</v>
+      </c>
+      <c r="E7">
         <v>187505.5463360962</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17849.72311603438</v>
-      </c>
-      <c r="F7">
-        <v>33925.52939891469</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>499682.1214953149</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>130.0315880753852</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.733537534008084</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33581.59281059708</v>
+      </c>
+      <c r="E7">
         <v>228761.2033403381</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16476.13584782356</v>
-      </c>
-      <c r="F7">
-        <v>33581.59281059708</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>609624.0118467163</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>114.1640951907521</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.667801533012628</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>39159.63382247838</v>
+      </c>
+      <c r="E7">
         <v>280877.8742270285</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>14465.58616369585</v>
-      </c>
-      <c r="F7">
-        <v>39159.63382247838</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>748509.3364826911</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>98.60282730095558</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.62263305353899</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>53614.79755200738</v>
+      </c>
+      <c r="E7">
         <v>344960.8536592518</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12493.8378561383</v>
-      </c>
-      <c r="F7">
-        <v>53614.79755200738</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>919283.5868455973</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>112.4897294652362</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.555343197881223</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>83503.42214338317</v>
+      </c>
+      <c r="E7">
         <v>421382.4651681012</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>14253.42942885273</v>
-      </c>
-      <c r="F7">
-        <v>83503.42214338317</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1122938.965115767</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>175.4043084522295</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.7809844066979</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>128188.8121952324</v>
+      </c>
+      <c r="E7">
         <v>509575.5496682255</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22225.25508707178</v>
-      </c>
-      <c r="F7">
-        <v>128188.8121952324</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1357964.053308341</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.003274965499510374</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.00872743095122131</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>249.9261236409287</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.78622259294228</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>180548.0424365879</v>
+      </c>
+      <c r="E7">
         <v>607884.2484440032</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31667.81876601092</v>
-      </c>
-      <c r="F7">
-        <v>180548.0424365879</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1619946.165974349</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>349.4290006920913</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.46930725206614</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>253955.556416613</v>
+      </c>
+      <c r="E7">
         <v>713484.1212304643</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>44275.70077229536</v>
-      </c>
-      <c r="F7">
-        <v>253955.556416613</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1901358.473474803</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>497.4591742989751</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>33.41171506617314</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>361699.7363706334</v>
+      </c>
+      <c r="E7">
         <v>822390.6750227568</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>63032.41432185181</v>
-      </c>
-      <c r="F7">
-        <v>361699.7363706334</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2191582.730340961</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>600.7387138483829</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.3484582721924</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>436780.2965960854</v>
+      </c>
+      <c r="E7">
         <v>929587.9498032015</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76118.83239228395</v>
-      </c>
-      <c r="F7">
-        <v>436780.2965960854</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2477251.942412142</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>613.2576999853632</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.18929269506864</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>446978.3427590959</v>
+      </c>
+      <c r="E7">
         <v>1029312.334736994</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77705.09707860254</v>
-      </c>
-      <c r="F7">
-        <v>446978.3427590959</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2743006.706483033</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>605.5877875531276</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.67414503671156</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>443018.7882108056</v>
+      </c>
+      <c r="E7">
         <v>1115508.40321655</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76733.25230576808</v>
-      </c>
-      <c r="F7">
-        <v>443018.7882108056</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2972709.961688176</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>590.1647648055906</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.63826175598609</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>433841.2939433716</v>
+      </c>
+      <c r="E7">
         <v>1182431.985770609</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74779.02086298073</v>
-      </c>
-      <c r="F7">
-        <v>433841.2939433716</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3151054.11396588</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>568.2484905757016</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>38.16626094121958</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>418889.1247158627</v>
+      </c>
+      <c r="E7">
         <v>1225323.612126197</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>72002.03784805007</v>
-      </c>
-      <c r="F7">
-        <v>418889.1247158627</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3265355.686748845</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>551.2495472821855</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>37.02453137004548</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>405846.2876601489</v>
+      </c>
+      <c r="E7">
         <v>1241033.858710939</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69848.12353292959</v>
-      </c>
-      <c r="F7">
-        <v>405846.2876601489</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3307221.804824131</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>537.2256255627419</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.08261834319121</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>393951.7430860354</v>
+      </c>
+      <c r="E7">
         <v>1228471.343774883</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68071.17038801496</v>
-      </c>
-      <c r="F7">
-        <v>393951.7430860354</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3273744.053167053</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0180646548097194</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0481403628627675</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>497.0541976557607</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>33.38451491606916</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>363032.4372678344</v>
+      </c>
+      <c r="E7">
         <v>1188774.777156244</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>62981.10025049766</v>
-      </c>
-      <c r="F7">
-        <v>363032.4372678344</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3167956.971069081</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>399.1236695461635</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.80703666151953</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>290449.1375002923</v>
+      </c>
+      <c r="E7">
         <v>1125177.603417076</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50572.4485631292</v>
-      </c>
-      <c r="F7">
-        <v>290449.1375002923</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2998477.340647203</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>244.9961362341668</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.45510128083326</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>175653.7249252126</v>
+      </c>
+      <c r="E7">
         <v>1042615.052381714</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31043.14638106106</v>
-      </c>
-      <c r="F7">
-        <v>175653.7249252126</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2778457.018776473</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>147.7492417209053</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.923539097612739</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>95095.17826510296</v>
+      </c>
+      <c r="E7">
         <v>947184.9037515535</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18721.11703038849</v>
-      </c>
-      <c r="F7">
-        <v>95095.17826510296</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2524145.932763803</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>156.7943020406067</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.53104820342849</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82743.10545185885</v>
+      </c>
+      <c r="E7">
         <v>845584.9768473319</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19867.20502935041</v>
-      </c>
-      <c r="F7">
-        <v>82743.10545185885</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2253393.050988928</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>180.888562309829</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.14933287971359</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>78999.8350615271</v>
+      </c>
+      <c r="E7">
         <v>744606.1372820939</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22920.15786353694</v>
-      </c>
-      <c r="F7">
-        <v>78999.8350615271</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1984295.300196797</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>190.1908606196033</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.77411930771487</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>69552.72631638192</v>
+      </c>
+      <c r="E7">
         <v>650688.7196364012</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24098.84015848797</v>
-      </c>
-      <c r="F7">
-        <v>69552.72631638192</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1734015.47961782</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>175.5176185428914</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.78859484924055</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>53610.14728389653</v>
+      </c>
+      <c r="E7">
         <v>569504.7444104928</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22239.61246341631</v>
-      </c>
-      <c r="F7">
-        <v>53610.14728389653</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1517668.914062944</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>152.5716138976869</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.24743246100427</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41541.39676957183</v>
+      </c>
+      <c r="E7">
         <v>505545.7149139245</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19332.15362749099</v>
-      </c>
-      <c r="F7">
-        <v>41541.39676957183</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1347224.976952193</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>139.6213887554846</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.377633983362751</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>39687.02808269229</v>
+      </c>
+      <c r="E7">
         <v>461764.034444981</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17691.24719959191</v>
-      </c>
-      <c r="F7">
-        <v>39687.02808269229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1230551.505650506</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8395,10 +8395,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.07077618748561523</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1886109302109441</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>130.6148816650571</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.772714295087033</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43152.18136833811</v>
+      </c>
+      <c r="E7">
         <v>439376.1249947319</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16550.04423089296</v>
-      </c>
-      <c r="F7">
-        <v>43152.18136833811</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1170890.133981565</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>123.9270246282446</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.323526129983488</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>53690.4408102419</v>
+      </c>
+      <c r="E7">
         <v>437926.6122073816</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15702.63443839343</v>
-      </c>
-      <c r="F7">
-        <v>53690.4408102419</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1167027.338246342</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>128.095688092222</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.603513319005501</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>74366.7168115758</v>
+      </c>
+      <c r="E7">
         <v>455624.2527750924</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16230.84044243402</v>
-      </c>
-      <c r="F7">
-        <v>74366.7168115758</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1214189.647613364</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>155.6872670207269</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.45669448645338</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>107803.4769211634</v>
+      </c>
+      <c r="E7">
         <v>489842.6274094426</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19726.93404100208</v>
-      </c>
-      <c r="F7">
-        <v>107803.4769211634</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1305377.937056096</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>213.4036707052328</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.33320161343211</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>154809.4365034146</v>
+      </c>
+      <c r="E7">
         <v>537609.8433751129</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27040.10556977274</v>
-      </c>
-      <c r="F7">
-        <v>154809.4365034146</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1432672.43195529</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>295.6220314547732</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.85537626513627</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>214648.4821114101</v>
+      </c>
+      <c r="E7">
         <v>595938.7682711212</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37457.88867113303</v>
-      </c>
-      <c r="F7">
-        <v>214648.4821114101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1588112.745621189</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>393.9303019470144</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.4582254878163</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>286110.6724036833</v>
+      </c>
+      <c r="E7">
         <v>661952.2847015853</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>49914.40361160821</v>
-      </c>
-      <c r="F7">
-        <v>286110.6724036833</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1764031.669524456</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>495.983315069548</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>33.31258936782636</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>360733.6031520475</v>
+      </c>
+      <c r="E7">
         <v>732863.901105199</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>62845.41009067834</v>
-      </c>
-      <c r="F7">
-        <v>360733.6031520475</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1953003.503241346</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>572.7981530010936</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>38.47183782563164</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>417116.5764974406</v>
+      </c>
+      <c r="E7">
         <v>805916.5454800624</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>72578.51974211905</v>
-      </c>
-      <c r="F7">
-        <v>417116.5764974406</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2147680.94631092</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>604.0007189121022</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.56754998738089</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>440731.7025633911</v>
+      </c>
+      <c r="E7">
         <v>878353.3048754868</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76532.15687260152</v>
-      </c>
-      <c r="F7">
-        <v>440731.7025633911</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2340717.122126608</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.409429968687134E-16</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.319818977947688E-17</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.557813766296087E-11</v>
+      </c>
+      <c r="E7">
         <v>0.2443920595415579</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.192256810128265E-13</v>
-      </c>
-      <c r="F7">
-        <v>2.557813766296087E-11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.6512785630855032</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>604.1959849266276</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.58066497807058</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>442101.4285876258</v>
+      </c>
+      <c r="E7">
         <v>947438.7145311824</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76556.89877900601</v>
-      </c>
-      <c r="F7">
-        <v>442101.4285876258</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2524822.311203276</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>597.2370446899854</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.11326958089678</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>437978.1296787197</v>
+      </c>
+      <c r="E7">
         <v>1010516.498596209</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75675.14038173614</v>
-      </c>
-      <c r="F7">
-        <v>437978.1296787197</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2692917.82398528</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>595.1252738784873</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.97143304780185</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>436318.7767241955</v>
+      </c>
+      <c r="E7">
         <v>1065090.492208102</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75407.5606091232</v>
-      </c>
-      <c r="F7">
-        <v>436318.7767241955</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2838351.649487073</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>598.6334218391329</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.20705688615249</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>437323.7789730365</v>
+      </c>
+      <c r="E7">
         <v>1108928.790271775</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75852.07354039921</v>
-      </c>
-      <c r="F7">
-        <v>437323.7789730365</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2955176.000591527</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>583.0054181835176</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.15740611645794</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>423768.0976240766</v>
+      </c>
+      <c r="E7">
         <v>1140195.265997833</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73871.86922949804</v>
-      </c>
-      <c r="F7">
-        <v>423768.0976240766</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3038497.796814419</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>526.6492639918871</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.37225979016986</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>380442.0565302952</v>
+      </c>
+      <c r="E7">
         <v>1157603.436784365</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>66731.05317037339</v>
-      </c>
-      <c r="F7">
-        <v>380442.0565302952</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3084888.700336681</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>436.9692352236719</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.34892416156812</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>311773.1802208454</v>
+      </c>
+      <c r="E7">
         <v>1160573.359350403</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55367.81167888888</v>
-      </c>
-      <c r="F7">
-        <v>311773.1802208454</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3092803.224666615</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>334.8916300257976</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.49290856126296</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>231294.9108507268</v>
+      </c>
+      <c r="E7">
         <v>1149360.890606688</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>42433.68916947497</v>
-      </c>
-      <c r="F7">
-        <v>231294.9108507268</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3062923.200963122</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>262.1793119710363</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.60920477578099</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>167447.0930753064</v>
+      </c>
+      <c r="E7">
         <v>1125124.189866907</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33220.40455292584</v>
-      </c>
-      <c r="F7">
-        <v>167447.0930753064</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2998334.999278713</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>241.1121110748631</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.19423174894578</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>136658.2485526558</v>
+      </c>
+      <c r="E7">
         <v>1089897.016586346</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30551.00653175036</v>
-      </c>
-      <c r="F7">
-        <v>136658.2485526558</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2904458.36990391</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.27008956148175E-14</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.211289221127273E-15</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.262722617829247E-09</v>
+      </c>
+      <c r="E7">
         <v>0.7218529132897333</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7.944750112034471E-12</v>
-      </c>
-      <c r="F7">
-        <v>1.262722617829247E-09</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.923660404549595</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>247.0268018525657</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.59149040488998</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>124835.3272882251</v>
+      </c>
+      <c r="E7">
         <v>1046453.825699329</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31300.44941861874</v>
-      </c>
-      <c r="F7">
-        <v>124835.3272882251</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2788686.936945652</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>248.2270218260455</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.67210286485144</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>114062.3100941234</v>
+      </c>
+      <c r="E7">
         <v>998076.2628291161</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31452.52775299131</v>
-      </c>
-      <c r="F7">
-        <v>114062.3100941234</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2659765.933166752</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>236.2087761355429</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>15.86490054282731</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>101317.6484454652</v>
+      </c>
+      <c r="E7">
         <v>948257.000506547</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>29929.71124678635</v>
-      </c>
-      <c r="F7">
-        <v>101317.6484454652</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2527002.955350341</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>218.8530603467205</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.69920844050998</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>92029.7323494499</v>
+      </c>
+      <c r="E7">
         <v>900393.6560329814</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27730.59074610406</v>
-      </c>
-      <c r="F7">
-        <v>92029.7323494499</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2399452.288312774</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>205.8516437680302</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.82597170345316</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>90723.34523574589</v>
+      </c>
+      <c r="E7">
         <v>857524.2498803169</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>26083.19791690584</v>
-      </c>
-      <c r="F7">
-        <v>90723.34523574589</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2285209.929981618</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>199.1466283721203</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.37563110165775</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>97056.69169916279</v>
+      </c>
+      <c r="E7">
         <v>822137.0156794856</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25233.61401071904</v>
-      </c>
-      <c r="F7">
-        <v>97056.69169916279</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2190906.7554631</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>199.8184290363727</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.4207524172047</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>111078.2551727665</v>
+      </c>
+      <c r="E7">
         <v>796061.8092926615</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25318.73701175832</v>
-      </c>
-      <c r="F7">
-        <v>111078.2551727665</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2121419.133894605</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>213.2913061259843</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.32565467591575</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>134667.1678208656</v>
+      </c>
+      <c r="E7">
         <v>780430.9082940607</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27025.86799796743</v>
-      </c>
-      <c r="F7">
-        <v>134667.1678208656</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2079764.463275613</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>247.9195820620911</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.65145375368019</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>170519.0698885047</v>
+      </c>
+      <c r="E7">
         <v>775690.3061683789</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31413.57245458335</v>
-      </c>
-      <c r="F7">
-        <v>170519.0698885047</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2067131.268292251</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>307.1170493918316</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.62743613222944</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>219229.9741386759</v>
+      </c>
+      <c r="E7">
         <v>781646.0631600171</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38914.40765938337</v>
-      </c>
-      <c r="F7">
-        <v>219229.9741386759</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2083002.720347104</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
